--- a/Result Tables/results.diff.2024.xlsx
+++ b/Result Tables/results.diff.2024.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">nicht entbuscht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entbuscht</t>
+    <t xml:space="preserve">Kiefer (n. entb.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiefer (entb.)</t>
   </si>
   <si>
     <t xml:space="preserve">Buche</t>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">Signif</t>
   </si>
   <si>
-    <t xml:space="preserve">nicht entbuscht.letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entbuscht.letter</t>
+    <t xml:space="preserve">Kiefer (n. entb.).letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiefer (entb.).letter</t>
   </si>
   <si>
     <t xml:space="preserve">Buche.letter</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">44.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Photosynthetisch aktive Strahlung [%]</t>
+    <t xml:space="preserve">PAR [%]</t>
   </si>
   <si>
     <t xml:space="preserve">HL_cover</t>

--- a/Result Tables/results.diff.2024.xlsx
+++ b/Result Tables/results.diff.2024.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">44.17</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR [%]</t>
+    <t xml:space="preserve">Photosynthetisch aktive Strahlung [%]</t>
   </si>
   <si>
     <t xml:space="preserve">HL_cover</t>

--- a/Result Tables/results.diff.2024.xlsx
+++ b/Result Tables/results.diff.2024.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">44.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Photosynthetisch aktive Strahlung [%]</t>
+    <t xml:space="preserve">PAR [%]</t>
   </si>
   <si>
     <t xml:space="preserve">HL_cover</t>
